--- a/SLO/Documents/LISTADO_DESCARGA_0ER6IN1MA.xlsx
+++ b/SLO/Documents/LISTADO_DESCARGA_0ER6IN1MA.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="R394288474b4a47be"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="R2d5152a13d214f76"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -32,13 +32,13 @@
     <x:t>RECAPITULACION DE LA CARGA</x:t>
   </x:si>
   <x:si>
-    <x:t>SON 158 X 20 FULL CON UN PESO TOTAL DE = 2.819.234,86 KGS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SON 253 X 40 FULL CON UN PESO TOTAL DE = 4.417.158,78 KGS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TOTAL 411 CONTENEDORES FULL CON UN PESO TOTAL DE = 7.236.393,64 KGS</x:t>
+    <x:t>SON 158 X 20 FULL CON UN PESO TOTAL DE = 3.182.694,86 KGS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SON 253 X 40 FULL CON UN PESO TOTAL DE = 5.417.678,78 KGS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TOTAL 411 CONTENEDORES FULL CON UN PESO TOTAL DE = 8.600.373,64 KGS</x:t>
   </x:si>
   <x:si>
     <x:t>Item</x:t>
@@ -5546,7 +5546,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K6" s="7">
-        <x:v>13555.6</x:v>
+        <x:v>17455.6</x:v>
       </x:c>
       <x:c r="L6" s="7">
         <x:v>1382</x:v>
@@ -5602,7 +5602,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K7" s="11">
-        <x:v>11430.01</x:v>
+        <x:v>15330.01</x:v>
       </x:c>
       <x:c r="L7" s="11">
         <x:v>2126</x:v>
@@ -5658,7 +5658,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K8" s="11">
-        <x:v>25300</x:v>
+        <x:v>27530</x:v>
       </x:c>
       <x:c r="L8" s="11">
         <x:v>27</x:v>
@@ -5714,7 +5714,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K9" s="11">
-        <x:v>25600</x:v>
+        <x:v>27830</x:v>
       </x:c>
       <x:c r="L9" s="11">
         <x:v>20</x:v>
@@ -5770,7 +5770,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K10" s="11">
-        <x:v>24900</x:v>
+        <x:v>27130</x:v>
       </x:c>
       <x:c r="L10" s="11">
         <x:v>26</x:v>
@@ -5826,7 +5826,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K11" s="11">
-        <x:v>23830</x:v>
+        <x:v>28530</x:v>
       </x:c>
       <x:c r="L11" s="11">
         <x:v>2268</x:v>
@@ -5884,7 +5884,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K12" s="11">
-        <x:v>23844</x:v>
+        <x:v>28544</x:v>
       </x:c>
       <x:c r="L12" s="11">
         <x:v>2268</x:v>
@@ -5942,7 +5942,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K13" s="11">
-        <x:v>4520</x:v>
+        <x:v>8420</x:v>
       </x:c>
       <x:c r="L13" s="11">
         <x:v>1250</x:v>
@@ -5998,7 +5998,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K14" s="11">
-        <x:v>17040</x:v>
+        <x:v>20940</x:v>
       </x:c>
       <x:c r="L14" s="11">
         <x:v>2188</x:v>
@@ -6054,7 +6054,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K15" s="11">
-        <x:v>16540</x:v>
+        <x:v>20440</x:v>
       </x:c>
       <x:c r="L15" s="11">
         <x:v>2083</x:v>
@@ -6110,7 +6110,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K16" s="11">
-        <x:v>16630</x:v>
+        <x:v>20530</x:v>
       </x:c>
       <x:c r="L16" s="11">
         <x:v>2620</x:v>
@@ -6166,7 +6166,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K17" s="11">
-        <x:v>17340</x:v>
+        <x:v>21240</x:v>
       </x:c>
       <x:c r="L17" s="11">
         <x:v>4149</x:v>
@@ -6222,7 +6222,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K18" s="11">
-        <x:v>4500</x:v>
+        <x:v>8400</x:v>
       </x:c>
       <x:c r="L18" s="11">
         <x:v>1250</x:v>
@@ -6278,7 +6278,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K19" s="11">
-        <x:v>4510</x:v>
+        <x:v>8410</x:v>
       </x:c>
       <x:c r="L19" s="11">
         <x:v>1250</x:v>
@@ -6334,7 +6334,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K20" s="11">
-        <x:v>9110</x:v>
+        <x:v>13010</x:v>
       </x:c>
       <x:c r="L20" s="11">
         <x:v>1622</x:v>
@@ -6390,7 +6390,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K21" s="11">
-        <x:v>8400</x:v>
+        <x:v>12300</x:v>
       </x:c>
       <x:c r="L21" s="11">
         <x:v>9758</x:v>
@@ -6446,7 +6446,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K22" s="11">
-        <x:v>8740</x:v>
+        <x:v>12640</x:v>
       </x:c>
       <x:c r="L22" s="11">
         <x:v>1830</x:v>
@@ -6506,7 +6506,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K23" s="11">
-        <x:v>4032</x:v>
+        <x:v>7932</x:v>
       </x:c>
       <x:c r="L23" s="11">
         <x:v>63</x:v>
@@ -6566,7 +6566,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K24" s="11">
-        <x:v>4860</x:v>
+        <x:v>8760</x:v>
       </x:c>
       <x:c r="L24" s="11">
         <x:v>108</x:v>
@@ -6626,7 +6626,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K25" s="11">
-        <x:v>4032</x:v>
+        <x:v>7932</x:v>
       </x:c>
       <x:c r="L25" s="11">
         <x:v>63</x:v>
@@ -6686,7 +6686,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K26" s="11">
-        <x:v>5020.5</x:v>
+        <x:v>8920.5</x:v>
       </x:c>
       <x:c r="L26" s="11">
         <x:v>107</x:v>
@@ -6746,7 +6746,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K27" s="11">
-        <x:v>3843</x:v>
+        <x:v>7743</x:v>
       </x:c>
       <x:c r="L27" s="11">
         <x:v>63</x:v>
@@ -6806,7 +6806,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K28" s="11">
-        <x:v>5136</x:v>
+        <x:v>9036</x:v>
       </x:c>
       <x:c r="L28" s="11">
         <x:v>107</x:v>
@@ -6866,7 +6866,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K29" s="11">
-        <x:v>4160.1</x:v>
+        <x:v>8060.1</x:v>
       </x:c>
       <x:c r="L29" s="11">
         <x:v>100</x:v>
@@ -6922,7 +6922,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K30" s="11">
-        <x:v>2400</x:v>
+        <x:v>4630</x:v>
       </x:c>
       <x:c r="L30" s="11">
         <x:v>59</x:v>
@@ -6978,7 +6978,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K31" s="11">
-        <x:v>11040</x:v>
+        <x:v>14940</x:v>
       </x:c>
       <x:c r="L31" s="11">
         <x:v>2108</x:v>
@@ -7034,7 +7034,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K32" s="11">
-        <x:v>25075.02</x:v>
+        <x:v>28975.02</x:v>
       </x:c>
       <x:c r="L32" s="11">
         <x:v>2690</x:v>
@@ -7090,7 +7090,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K33" s="11">
-        <x:v>16186</x:v>
+        <x:v>20086</x:v>
       </x:c>
       <x:c r="L33" s="11">
         <x:v>551</x:v>
@@ -7146,7 +7146,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K34" s="11">
-        <x:v>23948</x:v>
+        <x:v>26178</x:v>
       </x:c>
       <x:c r="L34" s="11">
         <x:v>21</x:v>
@@ -7202,7 +7202,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K35" s="11">
-        <x:v>23960</x:v>
+        <x:v>26190</x:v>
       </x:c>
       <x:c r="L35" s="11">
         <x:v>21</x:v>
@@ -7260,7 +7260,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K36" s="11">
-        <x:v>8844.32</x:v>
+        <x:v>13544.32</x:v>
       </x:c>
       <x:c r="L36" s="11">
         <x:v>818</x:v>
@@ -7320,7 +7320,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K37" s="11">
-        <x:v>29750</x:v>
+        <x:v>34450</x:v>
       </x:c>
       <x:c r="L37" s="11">
         <x:v>2125</x:v>
@@ -7380,7 +7380,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K38" s="11">
-        <x:v>28000</x:v>
+        <x:v>32700</x:v>
       </x:c>
       <x:c r="L38" s="11">
         <x:v>2000</x:v>
@@ -7440,7 +7440,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K39" s="11">
-        <x:v>13004.22</x:v>
+        <x:v>17704.22</x:v>
       </x:c>
       <x:c r="L39" s="11">
         <x:v>1066</x:v>
@@ -7498,7 +7498,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K40" s="11">
-        <x:v>25400</x:v>
+        <x:v>29300</x:v>
       </x:c>
       <x:c r="L40" s="11">
         <x:v>1000</x:v>
@@ -7554,7 +7554,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K41" s="11">
-        <x:v>25400</x:v>
+        <x:v>29300</x:v>
       </x:c>
       <x:c r="L41" s="11">
         <x:v>1000</x:v>
@@ -7610,7 +7610,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K42" s="11">
-        <x:v>12640</x:v>
+        <x:v>16540</x:v>
       </x:c>
       <x:c r="L42" s="11">
         <x:v>1120</x:v>
@@ -7666,7 +7666,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K43" s="11">
-        <x:v>25905.98</x:v>
+        <x:v>29805.98</x:v>
       </x:c>
       <x:c r="L43" s="11">
         <x:v>1954</x:v>
@@ -7722,7 +7722,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K44" s="11">
-        <x:v>22922.1</x:v>
+        <x:v>26822.1</x:v>
       </x:c>
       <x:c r="L44" s="11">
         <x:v>1980</x:v>
@@ -7778,7 +7778,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K45" s="11">
-        <x:v>22391</x:v>
+        <x:v>26291</x:v>
       </x:c>
       <x:c r="L45" s="11">
         <x:v>1679</x:v>
@@ -7834,7 +7834,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K46" s="11">
-        <x:v>21154.3</x:v>
+        <x:v>25054.3</x:v>
       </x:c>
       <x:c r="L46" s="11">
         <x:v>1751</x:v>
@@ -7890,7 +7890,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K47" s="11">
-        <x:v>25344</x:v>
+        <x:v>29244</x:v>
       </x:c>
       <x:c r="L47" s="11">
         <x:v>990</x:v>
@@ -7948,7 +7948,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K48" s="11">
-        <x:v>21475</x:v>
+        <x:v>23705</x:v>
       </x:c>
       <x:c r="L48" s="11">
         <x:v>22</x:v>
@@ -8004,7 +8004,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K49" s="11">
-        <x:v>9888</x:v>
+        <x:v>13788</x:v>
       </x:c>
       <x:c r="L49" s="11">
         <x:v>640</x:v>
@@ -8060,7 +8060,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K50" s="11">
-        <x:v>10421</x:v>
+        <x:v>14321</x:v>
       </x:c>
       <x:c r="L50" s="11">
         <x:v>1248</x:v>
@@ -8116,7 +8116,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K51" s="11">
-        <x:v>15629.7</x:v>
+        <x:v>19529.7</x:v>
       </x:c>
       <x:c r="L51" s="11">
         <x:v>1965</x:v>
@@ -8172,7 +8172,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K52" s="11">
-        <x:v>26373</x:v>
+        <x:v>30273</x:v>
       </x:c>
       <x:c r="L52" s="11">
         <x:v>149</x:v>
@@ -8228,7 +8228,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K53" s="11">
-        <x:v>26373</x:v>
+        <x:v>30273</x:v>
       </x:c>
       <x:c r="L53" s="11">
         <x:v>149</x:v>
@@ -8284,7 +8284,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K54" s="11">
-        <x:v>25710</x:v>
+        <x:v>29610</x:v>
       </x:c>
       <x:c r="L54" s="11">
         <x:v>562</x:v>
@@ -8340,7 +8340,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K55" s="11">
-        <x:v>10300</x:v>
+        <x:v>12530</x:v>
       </x:c>
       <x:c r="L55" s="11">
         <x:v>10</x:v>
@@ -8396,7 +8396,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K56" s="11">
-        <x:v>4420</x:v>
+        <x:v>8320</x:v>
       </x:c>
       <x:c r="L56" s="11">
         <x:v>20</x:v>
@@ -8454,7 +8454,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K57" s="11">
-        <x:v>4950</x:v>
+        <x:v>7180</x:v>
       </x:c>
       <x:c r="L57" s="11">
         <x:v>3</x:v>
@@ -8512,7 +8512,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K58" s="11">
-        <x:v>9900</x:v>
+        <x:v>13800</x:v>
       </x:c>
       <x:c r="L58" s="11">
         <x:v>6</x:v>
@@ -8572,7 +8572,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K59" s="11">
-        <x:v>22240</x:v>
+        <x:v>24470</x:v>
       </x:c>
       <x:c r="L59" s="11">
         <x:v>80</x:v>
@@ -8632,7 +8632,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K60" s="11">
-        <x:v>22240</x:v>
+        <x:v>24470</x:v>
       </x:c>
       <x:c r="L60" s="11">
         <x:v>80</x:v>
@@ -8690,7 +8690,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K61" s="11">
-        <x:v>22240</x:v>
+        <x:v>24470</x:v>
       </x:c>
       <x:c r="L61" s="11">
         <x:v>80</x:v>
@@ -8750,7 +8750,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K62" s="11">
-        <x:v>22240</x:v>
+        <x:v>24470</x:v>
       </x:c>
       <x:c r="L62" s="11">
         <x:v>80</x:v>
@@ -8810,7 +8810,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K63" s="11">
-        <x:v>22240</x:v>
+        <x:v>24470</x:v>
       </x:c>
       <x:c r="L63" s="11">
         <x:v>80</x:v>
@@ -8866,7 +8866,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K64" s="11">
-        <x:v>24591</x:v>
+        <x:v>28491</x:v>
       </x:c>
       <x:c r="L64" s="11">
         <x:v>21</x:v>
@@ -8922,7 +8922,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K65" s="11">
-        <x:v>25165.99</x:v>
+        <x:v>27395.99</x:v>
       </x:c>
       <x:c r="L65" s="11">
         <x:v>593</x:v>
@@ -8978,7 +8978,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K66" s="11">
-        <x:v>21630</x:v>
+        <x:v>25530</x:v>
       </x:c>
       <x:c r="L66" s="11">
         <x:v>42</x:v>
@@ -9034,7 +9034,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K67" s="11">
-        <x:v>21630</x:v>
+        <x:v>25530</x:v>
       </x:c>
       <x:c r="L67" s="11">
         <x:v>42</x:v>
@@ -9090,7 +9090,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K68" s="11">
-        <x:v>24360</x:v>
+        <x:v>28260</x:v>
       </x:c>
       <x:c r="L68" s="11">
         <x:v>42</x:v>
@@ -9146,7 +9146,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K69" s="11">
-        <x:v>21890</x:v>
+        <x:v>25790</x:v>
       </x:c>
       <x:c r="L69" s="11">
         <x:v>42</x:v>
@@ -9202,7 +9202,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K70" s="11">
-        <x:v>26207.4</x:v>
+        <x:v>30107.4</x:v>
       </x:c>
       <x:c r="L70" s="11">
         <x:v>930</x:v>
@@ -9258,7 +9258,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K71" s="11">
-        <x:v>11492.39</x:v>
+        <x:v>15392.39</x:v>
       </x:c>
       <x:c r="L71" s="11">
         <x:v>1065</x:v>
@@ -9316,7 +9316,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K72" s="11">
-        <x:v>26615</x:v>
+        <x:v>30515</x:v>
       </x:c>
       <x:c r="L72" s="11">
         <x:v>42</x:v>
@@ -9372,7 +9372,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K73" s="11">
-        <x:v>28143.58</x:v>
+        <x:v>32043.58</x:v>
       </x:c>
       <x:c r="L73" s="11">
         <x:v>397</x:v>
@@ -9428,7 +9428,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K74" s="11">
-        <x:v>27682</x:v>
+        <x:v>31582</x:v>
       </x:c>
       <x:c r="L74" s="11">
         <x:v>1998</x:v>
@@ -9484,7 +9484,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K75" s="11">
-        <x:v>26444</x:v>
+        <x:v>30344</x:v>
       </x:c>
       <x:c r="L75" s="11">
         <x:v>2518</x:v>
@@ -9540,7 +9540,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K76" s="11">
-        <x:v>26647</x:v>
+        <x:v>30547</x:v>
       </x:c>
       <x:c r="L76" s="11">
         <x:v>339</x:v>
@@ -9596,7 +9596,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K77" s="11">
-        <x:v>22720</x:v>
+        <x:v>26620</x:v>
       </x:c>
       <x:c r="L77" s="11">
         <x:v>4131</x:v>
@@ -9654,7 +9654,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K78" s="11">
-        <x:v>13652.8</x:v>
+        <x:v>17552.8</x:v>
       </x:c>
       <x:c r="L78" s="11">
         <x:v>300</x:v>
@@ -9710,7 +9710,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K79" s="11">
-        <x:v>25078.4</x:v>
+        <x:v>28978.4</x:v>
       </x:c>
       <x:c r="L79" s="11">
         <x:v>1844</x:v>
@@ -9766,7 +9766,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K80" s="11">
-        <x:v>5579.5</x:v>
+        <x:v>9479.5</x:v>
       </x:c>
       <x:c r="L80" s="11">
         <x:v>71</x:v>
@@ -9822,7 +9822,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K81" s="11">
-        <x:v>17783.76</x:v>
+        <x:v>21683.76</x:v>
       </x:c>
       <x:c r="L81" s="11">
         <x:v>1260</x:v>
@@ -9878,7 +9878,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K82" s="11">
-        <x:v>7277.2</x:v>
+        <x:v>11177.2</x:v>
       </x:c>
       <x:c r="L82" s="11">
         <x:v>213</x:v>
@@ -9934,7 +9934,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K83" s="11">
-        <x:v>19411.11</x:v>
+        <x:v>23311.11</x:v>
       </x:c>
       <x:c r="L83" s="11">
         <x:v>26</x:v>
@@ -9996,7 +9996,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K84" s="11">
-        <x:v>21212.41</x:v>
+        <x:v>23442.41</x:v>
       </x:c>
       <x:c r="L84" s="11">
         <x:v>2635</x:v>
@@ -10052,7 +10052,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K85" s="11">
-        <x:v>14316.5</x:v>
+        <x:v>18216.5</x:v>
       </x:c>
       <x:c r="L85" s="11">
         <x:v>42</x:v>
@@ -10108,7 +10108,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K86" s="11">
-        <x:v>3060</x:v>
+        <x:v>5290</x:v>
       </x:c>
       <x:c r="L86" s="11">
         <x:v>50</x:v>
@@ -10166,7 +10166,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K87" s="11">
-        <x:v>21300.55</x:v>
+        <x:v>25200.55</x:v>
       </x:c>
       <x:c r="L87" s="11">
         <x:v>22</x:v>
@@ -10230,7 +10230,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K88" s="11">
-        <x:v>26975.5</x:v>
+        <x:v>30695.5</x:v>
       </x:c>
       <x:c r="L88" s="11">
         <x:v>2173</x:v>
@@ -10286,7 +10286,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K89" s="11">
-        <x:v>4720</x:v>
+        <x:v>8620</x:v>
       </x:c>
       <x:c r="L89" s="11">
         <x:v>20</x:v>
@@ -10346,7 +10346,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K90" s="11">
-        <x:v>5460</x:v>
+        <x:v>7690</x:v>
       </x:c>
       <x:c r="L90" s="11">
         <x:v>10</x:v>
@@ -10406,7 +10406,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K91" s="11">
-        <x:v>10180</x:v>
+        <x:v>14080</x:v>
       </x:c>
       <x:c r="L91" s="11">
         <x:v>20</x:v>
@@ -10466,7 +10466,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K92" s="11">
-        <x:v>26810</x:v>
+        <x:v>30710</x:v>
       </x:c>
       <x:c r="L92" s="11">
         <x:v>1284</x:v>
@@ -10526,7 +10526,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K93" s="11">
-        <x:v>14142.12</x:v>
+        <x:v>18042.12</x:v>
       </x:c>
       <x:c r="L93" s="11">
         <x:v>1272</x:v>
@@ -10586,7 +10586,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K94" s="11">
-        <x:v>27039</x:v>
+        <x:v>30939</x:v>
       </x:c>
       <x:c r="L94" s="11">
         <x:v>2535</x:v>
@@ -10646,7 +10646,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K95" s="11">
-        <x:v>20600</x:v>
+        <x:v>22830</x:v>
       </x:c>
       <x:c r="L95" s="11">
         <x:v>2000</x:v>
@@ -10706,7 +10706,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K96" s="11">
-        <x:v>22990</x:v>
+        <x:v>26410</x:v>
       </x:c>
       <x:c r="L96" s="11">
         <x:v>1</x:v>
@@ -10770,7 +10770,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K97" s="11">
-        <x:v>23060</x:v>
+        <x:v>26480</x:v>
       </x:c>
       <x:c r="L97" s="11">
         <x:v>1</x:v>
@@ -10834,7 +10834,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K98" s="11">
-        <x:v>23230</x:v>
+        <x:v>26650</x:v>
       </x:c>
       <x:c r="L98" s="11">
         <x:v>1</x:v>
@@ -10898,7 +10898,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K99" s="11">
-        <x:v>23070</x:v>
+        <x:v>26490</x:v>
       </x:c>
       <x:c r="L99" s="11">
         <x:v>1</x:v>
@@ -10962,7 +10962,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K100" s="11">
-        <x:v>22980</x:v>
+        <x:v>26400</x:v>
       </x:c>
       <x:c r="L100" s="11">
         <x:v>1</x:v>
@@ -11026,7 +11026,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K101" s="11">
-        <x:v>23030</x:v>
+        <x:v>26450</x:v>
       </x:c>
       <x:c r="L101" s="11">
         <x:v>1</x:v>
@@ -11090,7 +11090,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K102" s="11">
-        <x:v>23040</x:v>
+        <x:v>26460</x:v>
       </x:c>
       <x:c r="L102" s="11">
         <x:v>1</x:v>
@@ -11154,7 +11154,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K103" s="11">
-        <x:v>23210</x:v>
+        <x:v>26630</x:v>
       </x:c>
       <x:c r="L103" s="11">
         <x:v>1</x:v>
@@ -11218,7 +11218,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K104" s="11">
-        <x:v>23010</x:v>
+        <x:v>26430</x:v>
       </x:c>
       <x:c r="L104" s="11">
         <x:v>1</x:v>
@@ -11282,7 +11282,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K105" s="11">
-        <x:v>23700</x:v>
+        <x:v>27120</x:v>
       </x:c>
       <x:c r="L105" s="11">
         <x:v>1</x:v>
@@ -11342,7 +11342,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K106" s="11">
-        <x:v>8800</x:v>
+        <x:v>11030</x:v>
       </x:c>
       <x:c r="L106" s="11">
         <x:v>40</x:v>
@@ -11398,7 +11398,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K107" s="11">
-        <x:v>18560</x:v>
+        <x:v>20790</x:v>
       </x:c>
       <x:c r="L107" s="11">
         <x:v>80</x:v>
@@ -11456,7 +11456,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K108" s="11">
-        <x:v>2678</x:v>
+        <x:v>4908</x:v>
       </x:c>
       <x:c r="L108" s="11">
         <x:v>1</x:v>
@@ -11512,7 +11512,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K109" s="11">
-        <x:v>24916.23</x:v>
+        <x:v>29616.23</x:v>
       </x:c>
       <x:c r="L109" s="11">
         <x:v>2390</x:v>
@@ -11570,7 +11570,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K110" s="11">
-        <x:v>24916.23</x:v>
+        <x:v>29616.23</x:v>
       </x:c>
       <x:c r="L110" s="11">
         <x:v>2390</x:v>
@@ -11628,7 +11628,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K111" s="11">
-        <x:v>27550</x:v>
+        <x:v>31450</x:v>
       </x:c>
       <x:c r="L111" s="11">
         <x:v>1340</x:v>
@@ -11684,7 +11684,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K112" s="11">
-        <x:v>12384</x:v>
+        <x:v>16284</x:v>
       </x:c>
       <x:c r="L112" s="11">
         <x:v>22</x:v>
@@ -11740,7 +11740,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K113" s="11">
-        <x:v>26600.2</x:v>
+        <x:v>28830.2</x:v>
       </x:c>
       <x:c r="L113" s="11">
         <x:v>27</x:v>
@@ -11798,7 +11798,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K114" s="11">
-        <x:v>25202</x:v>
+        <x:v>27432</x:v>
       </x:c>
       <x:c r="L114" s="11">
         <x:v>22</x:v>
@@ -11854,7 +11854,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K115" s="11">
-        <x:v>20400</x:v>
+        <x:v>22630</x:v>
       </x:c>
       <x:c r="L115" s="11">
         <x:v>300</x:v>
@@ -11910,7 +11910,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K116" s="11">
-        <x:v>20400</x:v>
+        <x:v>22630</x:v>
       </x:c>
       <x:c r="L116" s="11">
         <x:v>300</x:v>
@@ -11966,7 +11966,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K117" s="11">
-        <x:v>23396.63</x:v>
+        <x:v>27296.63</x:v>
       </x:c>
       <x:c r="L117" s="11">
         <x:v>29</x:v>
@@ -12022,7 +12022,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K118" s="11">
-        <x:v>2900</x:v>
+        <x:v>6800</x:v>
       </x:c>
       <x:c r="L118" s="11">
         <x:v>21</x:v>
@@ -12078,7 +12078,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K119" s="11">
-        <x:v>14252.63</x:v>
+        <x:v>16482.63</x:v>
       </x:c>
       <x:c r="L119" s="11">
         <x:v>1711</x:v>
@@ -12134,7 +12134,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K120" s="11">
-        <x:v>14219.31</x:v>
+        <x:v>16449.31</x:v>
       </x:c>
       <x:c r="L120" s="11">
         <x:v>1707</x:v>
@@ -12190,7 +12190,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K121" s="11">
-        <x:v>16746</x:v>
+        <x:v>20646</x:v>
       </x:c>
       <x:c r="L121" s="11">
         <x:v>801</x:v>
@@ -12246,7 +12246,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K122" s="11">
-        <x:v>15680</x:v>
+        <x:v>19580</x:v>
       </x:c>
       <x:c r="L122" s="11">
         <x:v>704</x:v>
@@ -12302,7 +12302,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K123" s="11">
-        <x:v>2940</x:v>
+        <x:v>6840</x:v>
       </x:c>
       <x:c r="L123" s="11">
         <x:v>21</x:v>
@@ -12358,7 +12358,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K124" s="11">
-        <x:v>12790</x:v>
+        <x:v>16690</x:v>
       </x:c>
       <x:c r="L124" s="11">
         <x:v>790</x:v>
@@ -12414,7 +12414,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K125" s="11">
-        <x:v>22523</x:v>
+        <x:v>26423</x:v>
       </x:c>
       <x:c r="L125" s="11">
         <x:v>2838</x:v>
@@ -12470,7 +12470,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K126" s="11">
-        <x:v>22595</x:v>
+        <x:v>26495</x:v>
       </x:c>
       <x:c r="L126" s="11">
         <x:v>2764</x:v>
@@ -12526,7 +12526,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K127" s="11">
-        <x:v>24995</x:v>
+        <x:v>29695</x:v>
       </x:c>
       <x:c r="L127" s="11">
         <x:v>1867</x:v>
@@ -12584,7 +12584,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K128" s="11">
-        <x:v>10900</x:v>
+        <x:v>13130</x:v>
       </x:c>
       <x:c r="L128" s="11">
         <x:v>10</x:v>
@@ -12640,7 +12640,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K129" s="11">
-        <x:v>18040</x:v>
+        <x:v>21940</x:v>
       </x:c>
       <x:c r="L129" s="11">
         <x:v>330</x:v>
@@ -12696,7 +12696,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K130" s="11">
-        <x:v>26642.6</x:v>
+        <x:v>28872.6</x:v>
       </x:c>
       <x:c r="L130" s="11">
         <x:v>20</x:v>
@@ -12752,7 +12752,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K131" s="11">
-        <x:v>13033</x:v>
+        <x:v>16933</x:v>
       </x:c>
       <x:c r="L131" s="11">
         <x:v>925</x:v>
@@ -12808,7 +12808,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K132" s="11">
-        <x:v>7081</x:v>
+        <x:v>10981</x:v>
       </x:c>
       <x:c r="L132" s="11">
         <x:v>4</x:v>
@@ -12864,7 +12864,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K133" s="11">
-        <x:v>7379</x:v>
+        <x:v>11279</x:v>
       </x:c>
       <x:c r="L133" s="11">
         <x:v>4</x:v>
@@ -12920,7 +12920,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K134" s="11">
-        <x:v>22500</x:v>
+        <x:v>26380</x:v>
       </x:c>
       <x:c r="L134" s="11">
         <x:v>39</x:v>
@@ -12976,7 +12976,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K135" s="11">
-        <x:v>22500</x:v>
+        <x:v>26380</x:v>
       </x:c>
       <x:c r="L135" s="11">
         <x:v>27</x:v>
@@ -13032,7 +13032,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K136" s="11">
-        <x:v>22416</x:v>
+        <x:v>26136</x:v>
       </x:c>
       <x:c r="L136" s="11">
         <x:v>1896</x:v>
@@ -13088,7 +13088,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K137" s="11">
-        <x:v>14169.82</x:v>
+        <x:v>18869.82</x:v>
       </x:c>
       <x:c r="L137" s="11">
         <x:v>24</x:v>
@@ -13146,7 +13146,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K138" s="11">
-        <x:v>26000</x:v>
+        <x:v>28230</x:v>
       </x:c>
       <x:c r="L138" s="11">
         <x:v>24</x:v>
@@ -13202,7 +13202,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K139" s="11">
-        <x:v>26500</x:v>
+        <x:v>28730</x:v>
       </x:c>
       <x:c r="L139" s="11">
         <x:v>23</x:v>
@@ -13258,7 +13258,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K140" s="11">
-        <x:v>24000</x:v>
+        <x:v>26230</x:v>
       </x:c>
       <x:c r="L140" s="11">
         <x:v>960</x:v>
@@ -13314,7 +13314,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K141" s="11">
-        <x:v>12098.7</x:v>
+        <x:v>15998.7</x:v>
       </x:c>
       <x:c r="L141" s="11">
         <x:v>37</x:v>
@@ -13374,7 +13374,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K142" s="11">
-        <x:v>18592.5</x:v>
+        <x:v>22492.5</x:v>
       </x:c>
       <x:c r="L142" s="11">
         <x:v>22</x:v>
@@ -13430,7 +13430,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K143" s="11">
-        <x:v>21520.7</x:v>
+        <x:v>25420.7</x:v>
       </x:c>
       <x:c r="L143" s="11">
         <x:v>69</x:v>
@@ -13486,7 +13486,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K144" s="11">
-        <x:v>20623</x:v>
+        <x:v>24523</x:v>
       </x:c>
       <x:c r="L144" s="11">
         <x:v>26</x:v>
@@ -13542,7 +13542,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K145" s="11">
-        <x:v>24940</x:v>
+        <x:v>28840</x:v>
       </x:c>
       <x:c r="L145" s="11">
         <x:v>1080</x:v>
@@ -13598,7 +13598,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K146" s="11">
-        <x:v>25325</x:v>
+        <x:v>29225</x:v>
       </x:c>
       <x:c r="L146" s="11">
         <x:v>1560</x:v>
@@ -13654,7 +13654,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K147" s="11">
-        <x:v>25090</x:v>
+        <x:v>28990</x:v>
       </x:c>
       <x:c r="L147" s="11">
         <x:v>1330</x:v>
@@ -13710,7 +13710,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K148" s="11">
-        <x:v>23354</x:v>
+        <x:v>27254</x:v>
       </x:c>
       <x:c r="L148" s="11">
         <x:v>32</x:v>
@@ -13766,7 +13766,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K149" s="11">
-        <x:v>21910</x:v>
+        <x:v>25810</x:v>
       </x:c>
       <x:c r="L149" s="11">
         <x:v>35</x:v>
@@ -13822,7 +13822,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K150" s="11">
-        <x:v>26200</x:v>
+        <x:v>28400</x:v>
       </x:c>
       <x:c r="L150" s="11">
         <x:v>10</x:v>
@@ -13878,7 +13878,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K151" s="11">
-        <x:v>26200</x:v>
+        <x:v>28400</x:v>
       </x:c>
       <x:c r="L151" s="11">
         <x:v>10</x:v>
@@ -13934,7 +13934,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K152" s="11">
-        <x:v>26200</x:v>
+        <x:v>28400</x:v>
       </x:c>
       <x:c r="L152" s="11">
         <x:v>10</x:v>
@@ -13990,7 +13990,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K153" s="11">
-        <x:v>16882</x:v>
+        <x:v>20782</x:v>
       </x:c>
       <x:c r="L153" s="11">
         <x:v>980</x:v>
@@ -14046,7 +14046,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K154" s="11">
-        <x:v>14683.28</x:v>
+        <x:v>18583.28</x:v>
       </x:c>
       <x:c r="L154" s="11">
         <x:v>2266</x:v>
@@ -14102,7 +14102,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K155" s="11">
-        <x:v>19975</x:v>
+        <x:v>22205</x:v>
       </x:c>
       <x:c r="L155" s="11">
         <x:v>2350</x:v>
@@ -14158,7 +14158,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K156" s="11">
-        <x:v>17363.35</x:v>
+        <x:v>19593.35</x:v>
       </x:c>
       <x:c r="L156" s="11">
         <x:v>1551</x:v>
@@ -14214,7 +14214,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K157" s="11">
-        <x:v>10320</x:v>
+        <x:v>14220</x:v>
       </x:c>
       <x:c r="L157" s="11">
         <x:v>325</x:v>
@@ -14270,7 +14270,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K158" s="11">
-        <x:v>6000</x:v>
+        <x:v>9900</x:v>
       </x:c>
       <x:c r="L158" s="11">
         <x:v>3</x:v>
@@ -14326,7 +14326,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K159" s="11">
-        <x:v>23457</x:v>
+        <x:v>27357</x:v>
       </x:c>
       <x:c r="L159" s="11">
         <x:v>31</x:v>
@@ -14382,7 +14382,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K160" s="11">
-        <x:v>25060</x:v>
+        <x:v>28960</x:v>
       </x:c>
       <x:c r="L160" s="11">
         <x:v>35</x:v>
@@ -14438,7 +14438,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K161" s="11">
-        <x:v>6253.33</x:v>
+        <x:v>10153.33</x:v>
       </x:c>
       <x:c r="L161" s="11">
         <x:v>1286</x:v>
@@ -14494,7 +14494,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K162" s="11">
-        <x:v>4800.78</x:v>
+        <x:v>8700.78</x:v>
       </x:c>
       <x:c r="L162" s="11">
         <x:v>2266</x:v>
@@ -14550,7 +14550,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K163" s="11">
-        <x:v>8600</x:v>
+        <x:v>12500</x:v>
       </x:c>
       <x:c r="L163" s="11">
         <x:v>766</x:v>
@@ -14606,7 +14606,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K164" s="11">
-        <x:v>7451.8</x:v>
+        <x:v>11351.8</x:v>
       </x:c>
       <x:c r="L164" s="11">
         <x:v>1868</x:v>
@@ -14662,7 +14662,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K165" s="11">
-        <x:v>7354.53</x:v>
+        <x:v>11254.53</x:v>
       </x:c>
       <x:c r="L165" s="11">
         <x:v>1837</x:v>
@@ -14718,7 +14718,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K166" s="11">
-        <x:v>24850</x:v>
+        <x:v>27080</x:v>
       </x:c>
       <x:c r="L166" s="11">
         <x:v>19</x:v>
@@ -14774,7 +14774,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K167" s="11">
-        <x:v>26700</x:v>
+        <x:v>28930</x:v>
       </x:c>
       <x:c r="L167" s="11">
         <x:v>27</x:v>
@@ -14830,7 +14830,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K168" s="11">
-        <x:v>26340</x:v>
+        <x:v>28570</x:v>
       </x:c>
       <x:c r="L168" s="11">
         <x:v>27</x:v>
@@ -14886,7 +14886,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K169" s="11">
-        <x:v>27190</x:v>
+        <x:v>29420</x:v>
       </x:c>
       <x:c r="L169" s="11">
         <x:v>26</x:v>
@@ -14942,7 +14942,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K170" s="11">
-        <x:v>27140</x:v>
+        <x:v>29370</x:v>
       </x:c>
       <x:c r="L170" s="11">
         <x:v>23</x:v>
@@ -14998,7 +14998,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K171" s="11">
-        <x:v>8650</x:v>
+        <x:v>12550</x:v>
       </x:c>
       <x:c r="L171" s="11">
         <x:v>525</x:v>
@@ -15054,7 +15054,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K172" s="11">
-        <x:v>6879.6</x:v>
+        <x:v>10779.6</x:v>
       </x:c>
       <x:c r="L172" s="11">
         <x:v>1625</x:v>
@@ -15110,7 +15110,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K173" s="11">
-        <x:v>8318.6</x:v>
+        <x:v>12218.6</x:v>
       </x:c>
       <x:c r="L173" s="11">
         <x:v>1699</x:v>
@@ -15166,7 +15166,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K174" s="11">
-        <x:v>7679.4</x:v>
+        <x:v>11579.4</x:v>
       </x:c>
       <x:c r="L174" s="11">
         <x:v>2280</x:v>
@@ -15222,7 +15222,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K175" s="11">
-        <x:v>7246.2</x:v>
+        <x:v>11146.2</x:v>
       </x:c>
       <x:c r="L175" s="11">
         <x:v>1823</x:v>
@@ -15278,7 +15278,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K176" s="11">
-        <x:v>7410</x:v>
+        <x:v>11310</x:v>
       </x:c>
       <x:c r="L176" s="11">
         <x:v>1865</x:v>
@@ -15334,7 +15334,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K177" s="11">
-        <x:v>7176</x:v>
+        <x:v>11076</x:v>
       </x:c>
       <x:c r="L177" s="11">
         <x:v>1805</x:v>
@@ -15390,7 +15390,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K178" s="11">
-        <x:v>7203.3</x:v>
+        <x:v>11103.3</x:v>
       </x:c>
       <x:c r="L178" s="11">
         <x:v>1753</x:v>
@@ -15446,7 +15446,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K179" s="11">
-        <x:v>7218.6</x:v>
+        <x:v>11118.6</x:v>
       </x:c>
       <x:c r="L179" s="11">
         <x:v>1592</x:v>
@@ -15502,7 +15502,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K180" s="11">
-        <x:v>7629.9</x:v>
+        <x:v>11529.9</x:v>
       </x:c>
       <x:c r="L180" s="11">
         <x:v>2313</x:v>
@@ -15558,7 +15558,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K181" s="11">
-        <x:v>8601.2</x:v>
+        <x:v>12501.2</x:v>
       </x:c>
       <x:c r="L181" s="11">
         <x:v>1836</x:v>
@@ -15614,7 +15614,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K182" s="11">
-        <x:v>7234.5</x:v>
+        <x:v>11134.5</x:v>
       </x:c>
       <x:c r="L182" s="11">
         <x:v>1820</x:v>
@@ -15670,7 +15670,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K183" s="11">
-        <x:v>7176</x:v>
+        <x:v>11076</x:v>
       </x:c>
       <x:c r="L183" s="11">
         <x:v>1805</x:v>
@@ -15726,7 +15726,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K184" s="11">
-        <x:v>7169.4</x:v>
+        <x:v>11069.4</x:v>
       </x:c>
       <x:c r="L184" s="11">
         <x:v>1694</x:v>
@@ -15782,7 +15782,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K185" s="11">
-        <x:v>7254</x:v>
+        <x:v>11154</x:v>
       </x:c>
       <x:c r="L185" s="11">
         <x:v>1825</x:v>
@@ -15838,7 +15838,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K186" s="11">
-        <x:v>12408</x:v>
+        <x:v>16308</x:v>
       </x:c>
       <x:c r="L186" s="11">
         <x:v>3102</x:v>
@@ -15894,7 +15894,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K187" s="11">
-        <x:v>5440</x:v>
+        <x:v>9340</x:v>
       </x:c>
       <x:c r="L187" s="11">
         <x:v>533</x:v>
@@ -15950,7 +15950,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K188" s="11">
-        <x:v>7920</x:v>
+        <x:v>10150</x:v>
       </x:c>
       <x:c r="L188" s="11">
         <x:v>11</x:v>
@@ -16006,7 +16006,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K189" s="11">
-        <x:v>20400</x:v>
+        <x:v>22630</x:v>
       </x:c>
       <x:c r="L189" s="11">
         <x:v>27</x:v>
@@ -16062,7 +16062,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K190" s="11">
-        <x:v>21664.8</x:v>
+        <x:v>25564.8</x:v>
       </x:c>
       <x:c r="L190" s="11">
         <x:v>40</x:v>
@@ -16118,7 +16118,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K191" s="11">
-        <x:v>21621.6</x:v>
+        <x:v>25521.6</x:v>
       </x:c>
       <x:c r="L191" s="11">
         <x:v>40</x:v>
@@ -16178,7 +16178,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K192" s="11">
-        <x:v>4443</x:v>
+        <x:v>9143</x:v>
       </x:c>
       <x:c r="L192" s="11">
         <x:v>28</x:v>
@@ -16238,7 +16238,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K193" s="11">
-        <x:v>5075.3</x:v>
+        <x:v>9775.3</x:v>
       </x:c>
       <x:c r="L193" s="11">
         <x:v>72</x:v>
@@ -16298,7 +16298,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K194" s="11">
-        <x:v>4059.5</x:v>
+        <x:v>8759.5</x:v>
       </x:c>
       <x:c r="L194" s="11">
         <x:v>30</x:v>
@@ -16360,7 +16360,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K195" s="11">
-        <x:v>19380</x:v>
+        <x:v>23280</x:v>
       </x:c>
       <x:c r="L195" s="11">
         <x:v>1</x:v>
@@ -16416,7 +16416,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K196" s="11">
-        <x:v>20774.98</x:v>
+        <x:v>24674.98</x:v>
       </x:c>
       <x:c r="L196" s="11">
         <x:v>1812</x:v>
@@ -16474,7 +16474,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K197" s="11">
-        <x:v>20640</x:v>
+        <x:v>22870</x:v>
       </x:c>
       <x:c r="L197" s="11">
         <x:v>1500</x:v>
@@ -16530,7 +16530,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K198" s="11">
-        <x:v>20384.95</x:v>
+        <x:v>24284.95</x:v>
       </x:c>
       <x:c r="L198" s="11">
         <x:v>1638</x:v>
@@ -16586,7 +16586,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K199" s="11">
-        <x:v>18150.7</x:v>
+        <x:v>22050.7</x:v>
       </x:c>
       <x:c r="L199" s="11">
         <x:v>2288</x:v>
@@ -16642,7 +16642,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K200" s="11">
-        <x:v>22274.56</x:v>
+        <x:v>26174.56</x:v>
       </x:c>
       <x:c r="L200" s="11">
         <x:v>1540</x:v>
@@ -16698,7 +16698,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K201" s="11">
-        <x:v>18150.7</x:v>
+        <x:v>22050.7</x:v>
       </x:c>
       <x:c r="L201" s="11">
         <x:v>2288</x:v>
@@ -16754,7 +16754,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K202" s="11">
-        <x:v>16375.27</x:v>
+        <x:v>20275.27</x:v>
       </x:c>
       <x:c r="L202" s="11">
         <x:v>1290</x:v>
@@ -16810,7 +16810,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K203" s="11">
-        <x:v>21137.18</x:v>
+        <x:v>23367.18</x:v>
       </x:c>
       <x:c r="L203" s="11">
         <x:v>1440</x:v>
@@ -16866,7 +16866,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K204" s="11">
-        <x:v>18150.7</x:v>
+        <x:v>22050.7</x:v>
       </x:c>
       <x:c r="L204" s="11">
         <x:v>2288</x:v>
@@ -16922,7 +16922,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K205" s="11">
-        <x:v>18150.7</x:v>
+        <x:v>22050.7</x:v>
       </x:c>
       <x:c r="L205" s="11">
         <x:v>2288</x:v>
@@ -16978,7 +16978,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K206" s="11">
-        <x:v>18150.7</x:v>
+        <x:v>22050.7</x:v>
       </x:c>
       <x:c r="L206" s="11">
         <x:v>2288</x:v>
@@ -17034,7 +17034,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K207" s="11">
-        <x:v>25199.09</x:v>
+        <x:v>27429.09</x:v>
       </x:c>
       <x:c r="L207" s="11">
         <x:v>2085</x:v>
@@ -17090,7 +17090,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K208" s="11">
-        <x:v>20134</x:v>
+        <x:v>24034</x:v>
       </x:c>
       <x:c r="L208" s="11">
         <x:v>74</x:v>
@@ -17146,7 +17146,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K209" s="11">
-        <x:v>21480</x:v>
+        <x:v>25380</x:v>
       </x:c>
       <x:c r="L209" s="11">
         <x:v>1400</x:v>
@@ -17202,7 +17202,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K210" s="11">
-        <x:v>21460</x:v>
+        <x:v>25360</x:v>
       </x:c>
       <x:c r="L210" s="11">
         <x:v>1400</x:v>
@@ -17258,7 +17258,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K211" s="11">
-        <x:v>3865</x:v>
+        <x:v>6095</x:v>
       </x:c>
       <x:c r="L211" s="11">
         <x:v>156</x:v>
@@ -17314,7 +17314,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K212" s="11">
-        <x:v>5573</x:v>
+        <x:v>9473</x:v>
       </x:c>
       <x:c r="L212" s="11">
         <x:v>215</x:v>
@@ -17370,7 +17370,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K213" s="11">
-        <x:v>21287.5</x:v>
+        <x:v>25187.5</x:v>
       </x:c>
       <x:c r="L213" s="11">
         <x:v>25</x:v>
@@ -17432,7 +17432,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K214" s="11">
-        <x:v>12500.81</x:v>
+        <x:v>16220.81</x:v>
       </x:c>
       <x:c r="L214" s="11">
         <x:v>30</x:v>
@@ -17490,7 +17490,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K215" s="11">
-        <x:v>25680</x:v>
+        <x:v>29580</x:v>
       </x:c>
       <x:c r="L215" s="11">
         <x:v>2140</x:v>
@@ -17548,7 +17548,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K216" s="11">
-        <x:v>25680</x:v>
+        <x:v>29580</x:v>
       </x:c>
       <x:c r="L216" s="11">
         <x:v>2140</x:v>
@@ -17606,7 +17606,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K217" s="11">
-        <x:v>25680</x:v>
+        <x:v>29580</x:v>
       </x:c>
       <x:c r="L217" s="11">
         <x:v>2140</x:v>
@@ -17664,7 +17664,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K218" s="11">
-        <x:v>25680</x:v>
+        <x:v>29580</x:v>
       </x:c>
       <x:c r="L218" s="11">
         <x:v>2140</x:v>
@@ -17722,7 +17722,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K219" s="11">
-        <x:v>25680</x:v>
+        <x:v>29580</x:v>
       </x:c>
       <x:c r="L219" s="11">
         <x:v>2140</x:v>
@@ -17780,7 +17780,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K220" s="11">
-        <x:v>25680</x:v>
+        <x:v>29580</x:v>
       </x:c>
       <x:c r="L220" s="11">
         <x:v>2140</x:v>
@@ -17838,7 +17838,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K221" s="11">
-        <x:v>25680</x:v>
+        <x:v>29580</x:v>
       </x:c>
       <x:c r="L221" s="11">
         <x:v>2140</x:v>
@@ -17896,7 +17896,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K222" s="11">
-        <x:v>25680</x:v>
+        <x:v>29580</x:v>
       </x:c>
       <x:c r="L222" s="11">
         <x:v>2140</x:v>
@@ -17954,7 +17954,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K223" s="11">
-        <x:v>25680</x:v>
+        <x:v>29580</x:v>
       </x:c>
       <x:c r="L223" s="11">
         <x:v>2140</x:v>
@@ -18012,7 +18012,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K224" s="11">
-        <x:v>25680</x:v>
+        <x:v>29580</x:v>
       </x:c>
       <x:c r="L224" s="11">
         <x:v>2140</x:v>
@@ -18070,7 +18070,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K225" s="11">
-        <x:v>25680</x:v>
+        <x:v>29580</x:v>
       </x:c>
       <x:c r="L225" s="11">
         <x:v>2140</x:v>
@@ -18128,7 +18128,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K226" s="11">
-        <x:v>25680</x:v>
+        <x:v>29580</x:v>
       </x:c>
       <x:c r="L226" s="11">
         <x:v>2140</x:v>
@@ -18186,7 +18186,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K227" s="11">
-        <x:v>25680</x:v>
+        <x:v>29580</x:v>
       </x:c>
       <x:c r="L227" s="11">
         <x:v>2140</x:v>
@@ -18244,7 +18244,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K228" s="11">
-        <x:v>14448.5</x:v>
+        <x:v>18348.5</x:v>
       </x:c>
       <x:c r="L228" s="11">
         <x:v>20</x:v>
@@ -18302,7 +18302,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K229" s="11">
-        <x:v>15027.6</x:v>
+        <x:v>18927.6</x:v>
       </x:c>
       <x:c r="L229" s="11">
         <x:v>20</x:v>
@@ -18360,7 +18360,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K230" s="11">
-        <x:v>14613</x:v>
+        <x:v>18513</x:v>
       </x:c>
       <x:c r="L230" s="11">
         <x:v>20</x:v>
@@ -18416,7 +18416,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K231" s="11">
-        <x:v>5120</x:v>
+        <x:v>7350</x:v>
       </x:c>
       <x:c r="L231" s="11">
         <x:v>9</x:v>
@@ -18472,7 +18472,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K232" s="11">
-        <x:v>19277</x:v>
+        <x:v>21507</x:v>
       </x:c>
       <x:c r="L232" s="11">
         <x:v>850</x:v>
@@ -18528,7 +18528,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K233" s="11">
-        <x:v>5469.87</x:v>
+        <x:v>9369.87</x:v>
       </x:c>
       <x:c r="L233" s="11">
         <x:v>20</x:v>
@@ -18584,7 +18584,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K234" s="11">
-        <x:v>13539.73</x:v>
+        <x:v>17439.73</x:v>
       </x:c>
       <x:c r="L234" s="11">
         <x:v>1194</x:v>
@@ -18640,7 +18640,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K235" s="11">
-        <x:v>16800</x:v>
+        <x:v>19030</x:v>
       </x:c>
       <x:c r="L235" s="11">
         <x:v>84</x:v>
@@ -18696,7 +18696,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K236" s="11">
-        <x:v>2267.96</x:v>
+        <x:v>4497.96</x:v>
       </x:c>
       <x:c r="L236" s="11">
         <x:v>1</x:v>
@@ -18756,7 +18756,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K237" s="11">
-        <x:v>15270</x:v>
+        <x:v>19170</x:v>
       </x:c>
       <x:c r="L237" s="11">
         <x:v>32</x:v>
@@ -18812,7 +18812,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K238" s="11">
-        <x:v>12136</x:v>
+        <x:v>16036</x:v>
       </x:c>
       <x:c r="L238" s="11">
         <x:v>32</x:v>
@@ -18872,7 +18872,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K239" s="11">
-        <x:v>17200</x:v>
+        <x:v>21100</x:v>
       </x:c>
       <x:c r="L239" s="11">
         <x:v>520</x:v>
@@ -18928,7 +18928,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K240" s="11">
-        <x:v>12491.57</x:v>
+        <x:v>14721.57</x:v>
       </x:c>
       <x:c r="L240" s="11">
         <x:v>18</x:v>
@@ -18988,7 +18988,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K241" s="11">
-        <x:v>13607.91</x:v>
+        <x:v>17507.91</x:v>
       </x:c>
       <x:c r="L241" s="11">
         <x:v>305</x:v>
@@ -19044,7 +19044,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K242" s="11">
-        <x:v>17872</x:v>
+        <x:v>21772</x:v>
       </x:c>
       <x:c r="L242" s="11">
         <x:v>204</x:v>
@@ -19100,7 +19100,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K243" s="11">
-        <x:v>20182</x:v>
+        <x:v>22412</x:v>
       </x:c>
       <x:c r="L243" s="11">
         <x:v>1</x:v>
@@ -19156,7 +19156,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K244" s="11">
-        <x:v>20186</x:v>
+        <x:v>22416</x:v>
       </x:c>
       <x:c r="L244" s="11">
         <x:v>1</x:v>
@@ -19212,7 +19212,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K245" s="11">
-        <x:v>19608</x:v>
+        <x:v>21838</x:v>
       </x:c>
       <x:c r="L245" s="11">
         <x:v>1</x:v>
@@ -19268,7 +19268,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K246" s="11">
-        <x:v>20182</x:v>
+        <x:v>22412</x:v>
       </x:c>
       <x:c r="L246" s="11">
         <x:v>1</x:v>
@@ -19324,7 +19324,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K247" s="11">
-        <x:v>20186</x:v>
+        <x:v>22416</x:v>
       </x:c>
       <x:c r="L247" s="11">
         <x:v>1</x:v>
@@ -19380,7 +19380,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K248" s="11">
-        <x:v>20186</x:v>
+        <x:v>22416</x:v>
       </x:c>
       <x:c r="L248" s="11">
         <x:v>1</x:v>
@@ -19436,7 +19436,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K249" s="11">
-        <x:v>19608</x:v>
+        <x:v>21838</x:v>
       </x:c>
       <x:c r="L249" s="11">
         <x:v>1</x:v>
@@ -19492,7 +19492,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K250" s="11">
-        <x:v>20186</x:v>
+        <x:v>22416</x:v>
       </x:c>
       <x:c r="L250" s="11">
         <x:v>1</x:v>
@@ -19548,7 +19548,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K251" s="11">
-        <x:v>20182</x:v>
+        <x:v>22412</x:v>
       </x:c>
       <x:c r="L251" s="11">
         <x:v>1</x:v>
@@ -19604,7 +19604,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K252" s="11">
-        <x:v>19608</x:v>
+        <x:v>21838</x:v>
       </x:c>
       <x:c r="L252" s="11">
         <x:v>1</x:v>
@@ -19660,7 +19660,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K253" s="11">
-        <x:v>20186</x:v>
+        <x:v>22416</x:v>
       </x:c>
       <x:c r="L253" s="11">
         <x:v>1</x:v>
@@ -19716,7 +19716,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K254" s="11">
-        <x:v>19608</x:v>
+        <x:v>21838</x:v>
       </x:c>
       <x:c r="L254" s="11">
         <x:v>1</x:v>
@@ -19772,7 +19772,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K255" s="11">
-        <x:v>19608</x:v>
+        <x:v>21838</x:v>
       </x:c>
       <x:c r="L255" s="11">
         <x:v>1</x:v>
@@ -19828,7 +19828,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K256" s="11">
-        <x:v>20186</x:v>
+        <x:v>22416</x:v>
       </x:c>
       <x:c r="L256" s="11">
         <x:v>1</x:v>
@@ -19884,7 +19884,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K257" s="11">
-        <x:v>19608</x:v>
+        <x:v>21838</x:v>
       </x:c>
       <x:c r="L257" s="11">
         <x:v>1</x:v>
@@ -19940,7 +19940,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K258" s="11">
-        <x:v>19608</x:v>
+        <x:v>21838</x:v>
       </x:c>
       <x:c r="L258" s="11">
         <x:v>1</x:v>
@@ -19996,7 +19996,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K259" s="11">
-        <x:v>7701.99</x:v>
+        <x:v>11601.99</x:v>
       </x:c>
       <x:c r="L259" s="11">
         <x:v>483</x:v>
@@ -20052,7 +20052,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K260" s="11">
-        <x:v>11430.53</x:v>
+        <x:v>15330.53</x:v>
       </x:c>
       <x:c r="L260" s="11">
         <x:v>210</x:v>
@@ -20108,7 +20108,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K261" s="11">
-        <x:v>11430.53</x:v>
+        <x:v>15330.53</x:v>
       </x:c>
       <x:c r="L261" s="11">
         <x:v>210</x:v>
@@ -20164,7 +20164,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K262" s="11">
-        <x:v>11430.53</x:v>
+        <x:v>15330.53</x:v>
       </x:c>
       <x:c r="L262" s="11">
         <x:v>210</x:v>
@@ -20220,7 +20220,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K263" s="11">
-        <x:v>1089</x:v>
+        <x:v>3319</x:v>
       </x:c>
       <x:c r="L263" s="11">
         <x:v>5</x:v>
@@ -20278,7 +20278,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K264" s="11">
-        <x:v>2120.55</x:v>
+        <x:v>4350.55</x:v>
       </x:c>
       <x:c r="L264" s="11">
         <x:v>1</x:v>
@@ -20338,7 +20338,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K265" s="11">
-        <x:v>2161.39</x:v>
+        <x:v>4391.39</x:v>
       </x:c>
       <x:c r="L265" s="11">
         <x:v>10</x:v>
@@ -20396,7 +20396,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K266" s="11">
-        <x:v>16000</x:v>
+        <x:v>19900</x:v>
       </x:c>
       <x:c r="L266" s="11">
         <x:v>1080</x:v>
@@ -20454,7 +20454,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K267" s="11">
-        <x:v>22689.38</x:v>
+        <x:v>26589.38</x:v>
       </x:c>
       <x:c r="L267" s="11">
         <x:v>598</x:v>
@@ -20510,7 +20510,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K268" s="11">
-        <x:v>11910</x:v>
+        <x:v>15810</x:v>
       </x:c>
       <x:c r="L268" s="11">
         <x:v>18</x:v>
@@ -20566,7 +20566,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K269" s="11">
-        <x:v>2448</x:v>
+        <x:v>4678</x:v>
       </x:c>
       <x:c r="L269" s="11">
         <x:v>1</x:v>
@@ -20622,7 +20622,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K270" s="11">
-        <x:v>17008.8</x:v>
+        <x:v>20908.8</x:v>
       </x:c>
       <x:c r="L270" s="11">
         <x:v>38</x:v>
@@ -20680,7 +20680,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K271" s="11">
-        <x:v>17857.93</x:v>
+        <x:v>21757.93</x:v>
       </x:c>
       <x:c r="L271" s="11">
         <x:v>2154</x:v>
@@ -20736,7 +20736,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K272" s="11">
-        <x:v>2004.88</x:v>
+        <x:v>4234.88</x:v>
       </x:c>
       <x:c r="L272" s="11">
         <x:v>1</x:v>
@@ -20796,7 +20796,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K273" s="11">
-        <x:v>16000</x:v>
+        <x:v>20700</x:v>
       </x:c>
       <x:c r="L273" s="11">
         <x:v>432</x:v>
@@ -20854,7 +20854,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K274" s="11">
-        <x:v>12314.25</x:v>
+        <x:v>16214.25</x:v>
       </x:c>
       <x:c r="L274" s="11">
         <x:v>114</x:v>
@@ -20910,7 +20910,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K275" s="11">
-        <x:v>11507.2</x:v>
+        <x:v>15407.2</x:v>
       </x:c>
       <x:c r="L275" s="11">
         <x:v>490</x:v>
@@ -20966,7 +20966,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K276" s="11">
-        <x:v>16000</x:v>
+        <x:v>19900</x:v>
       </x:c>
       <x:c r="L276" s="11">
         <x:v>661</x:v>
@@ -21022,7 +21022,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K277" s="11">
-        <x:v>19186.96</x:v>
+        <x:v>23086.96</x:v>
       </x:c>
       <x:c r="L277" s="11">
         <x:v>610</x:v>
@@ -21080,7 +21080,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K278" s="11">
-        <x:v>20300.47</x:v>
+        <x:v>24200.47</x:v>
       </x:c>
       <x:c r="L278" s="11">
         <x:v>4340</x:v>
@@ -21138,7 +21138,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K279" s="11">
-        <x:v>21092.05</x:v>
+        <x:v>24992.05</x:v>
       </x:c>
       <x:c r="L279" s="11">
         <x:v>640</x:v>
@@ -21194,7 +21194,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K280" s="11">
-        <x:v>19731.27</x:v>
+        <x:v>23631.27</x:v>
       </x:c>
       <x:c r="L280" s="11">
         <x:v>820</x:v>
@@ -21252,7 +21252,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K281" s="11">
-        <x:v>19186.96</x:v>
+        <x:v>23086.96</x:v>
       </x:c>
       <x:c r="L281" s="11">
         <x:v>520</x:v>
@@ -21308,7 +21308,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K282" s="11">
-        <x:v>4151.73</x:v>
+        <x:v>6381.73</x:v>
       </x:c>
       <x:c r="L282" s="11">
         <x:v>45</x:v>
@@ -21364,7 +21364,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K283" s="11">
-        <x:v>19801.7</x:v>
+        <x:v>23701.7</x:v>
       </x:c>
       <x:c r="L283" s="11">
         <x:v>1540</x:v>
@@ -21424,7 +21424,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K284" s="11">
-        <x:v>23920</x:v>
+        <x:v>26150</x:v>
       </x:c>
       <x:c r="L284" s="11">
         <x:v>2300</x:v>
@@ -21484,7 +21484,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K285" s="11">
-        <x:v>23920</x:v>
+        <x:v>26150</x:v>
       </x:c>
       <x:c r="L285" s="11">
         <x:v>2300</x:v>
@@ -21544,7 +21544,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K286" s="11">
-        <x:v>20710</x:v>
+        <x:v>22940</x:v>
       </x:c>
       <x:c r="L286" s="11">
         <x:v>950</x:v>
@@ -21600,7 +21600,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K287" s="11">
-        <x:v>25340</x:v>
+        <x:v>27570</x:v>
       </x:c>
       <x:c r="L287" s="11">
         <x:v>8</x:v>
@@ -21656,7 +21656,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K288" s="11">
-        <x:v>4840.31</x:v>
+        <x:v>7070.31</x:v>
       </x:c>
       <x:c r="L288" s="11">
         <x:v>534</x:v>
@@ -21712,7 +21712,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K289" s="11">
-        <x:v>17280</x:v>
+        <x:v>19510</x:v>
       </x:c>
       <x:c r="L289" s="11">
         <x:v>2400</x:v>
@@ -21770,7 +21770,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K290" s="11">
-        <x:v>690</x:v>
+        <x:v>2920</x:v>
       </x:c>
       <x:c r="L290" s="11">
         <x:v>2</x:v>
@@ -21826,7 +21826,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K291" s="11">
-        <x:v>3508.39</x:v>
+        <x:v>5738.39</x:v>
       </x:c>
       <x:c r="L291" s="11">
         <x:v>234</x:v>
@@ -21882,7 +21882,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K292" s="11">
-        <x:v>20980</x:v>
+        <x:v>23180</x:v>
       </x:c>
       <x:c r="L292" s="11">
         <x:v>2</x:v>
@@ -21938,7 +21938,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K293" s="11">
-        <x:v>20400</x:v>
+        <x:v>24280</x:v>
       </x:c>
       <x:c r="L293" s="11">
         <x:v>2</x:v>
@@ -21994,7 +21994,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K294" s="11">
-        <x:v>20400</x:v>
+        <x:v>24280</x:v>
       </x:c>
       <x:c r="L294" s="11">
         <x:v>2</x:v>
@@ -22050,7 +22050,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K295" s="11">
-        <x:v>20400</x:v>
+        <x:v>24280</x:v>
       </x:c>
       <x:c r="L295" s="11">
         <x:v>2</x:v>
@@ -22106,7 +22106,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K296" s="11">
-        <x:v>20400</x:v>
+        <x:v>24280</x:v>
       </x:c>
       <x:c r="L296" s="11">
         <x:v>2</x:v>
@@ -22162,7 +22162,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K297" s="11">
-        <x:v>20980</x:v>
+        <x:v>23180</x:v>
       </x:c>
       <x:c r="L297" s="11">
         <x:v>2</x:v>
@@ -22218,7 +22218,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K298" s="11">
-        <x:v>14900</x:v>
+        <x:v>17100</x:v>
       </x:c>
       <x:c r="L298" s="11">
         <x:v>2</x:v>
@@ -22274,7 +22274,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K299" s="11">
-        <x:v>20400</x:v>
+        <x:v>24280</x:v>
       </x:c>
       <x:c r="L299" s="11">
         <x:v>2</x:v>
@@ -22330,7 +22330,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K300" s="11">
-        <x:v>20400</x:v>
+        <x:v>24280</x:v>
       </x:c>
       <x:c r="L300" s="11">
         <x:v>2</x:v>
@@ -22386,7 +22386,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K301" s="11">
-        <x:v>24400</x:v>
+        <x:v>28280</x:v>
       </x:c>
       <x:c r="L301" s="11">
         <x:v>2</x:v>
@@ -22442,7 +22442,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K302" s="11">
-        <x:v>24800</x:v>
+        <x:v>28680</x:v>
       </x:c>
       <x:c r="L302" s="11">
         <x:v>2</x:v>
@@ -22498,7 +22498,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K303" s="11">
-        <x:v>25370</x:v>
+        <x:v>29250</x:v>
       </x:c>
       <x:c r="L303" s="11">
         <x:v>4</x:v>
@@ -22554,7 +22554,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K304" s="11">
-        <x:v>24800</x:v>
+        <x:v>28680</x:v>
       </x:c>
       <x:c r="L304" s="11">
         <x:v>2</x:v>
@@ -22610,7 +22610,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K305" s="11">
-        <x:v>23250</x:v>
+        <x:v>27130</x:v>
       </x:c>
       <x:c r="L305" s="11">
         <x:v>3</x:v>
@@ -22666,7 +22666,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K306" s="11">
-        <x:v>20400</x:v>
+        <x:v>24280</x:v>
       </x:c>
       <x:c r="L306" s="11">
         <x:v>2</x:v>
@@ -22722,7 +22722,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K307" s="11">
-        <x:v>20000</x:v>
+        <x:v>22200</x:v>
       </x:c>
       <x:c r="L307" s="11">
         <x:v>2</x:v>
@@ -22778,7 +22778,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K308" s="11">
-        <x:v>25750</x:v>
+        <x:v>29650</x:v>
       </x:c>
       <x:c r="L308" s="11">
         <x:v>7</x:v>
@@ -22834,7 +22834,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K309" s="11">
-        <x:v>20800</x:v>
+        <x:v>24680</x:v>
       </x:c>
       <x:c r="L309" s="11">
         <x:v>2</x:v>
@@ -22890,7 +22890,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K310" s="11">
-        <x:v>20900</x:v>
+        <x:v>23100</x:v>
       </x:c>
       <x:c r="L310" s="11">
         <x:v>3</x:v>
@@ -22946,7 +22946,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K311" s="11">
-        <x:v>18200</x:v>
+        <x:v>20400</x:v>
       </x:c>
       <x:c r="L311" s="11">
         <x:v>2</x:v>
@@ -23002,7 +23002,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K312" s="11">
-        <x:v>17600</x:v>
+        <x:v>19800</x:v>
       </x:c>
       <x:c r="L312" s="11">
         <x:v>3</x:v>
@@ -23058,7 +23058,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K313" s="11">
-        <x:v>22500</x:v>
+        <x:v>26380</x:v>
       </x:c>
       <x:c r="L313" s="11">
         <x:v>3</x:v>
@@ -23114,7 +23114,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K314" s="11">
-        <x:v>23300</x:v>
+        <x:v>27200</x:v>
       </x:c>
       <x:c r="L314" s="11">
         <x:v>5</x:v>
@@ -23170,7 +23170,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K315" s="11">
-        <x:v>18200</x:v>
+        <x:v>20400</x:v>
       </x:c>
       <x:c r="L315" s="11">
         <x:v>2</x:v>
@@ -23226,7 +23226,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K316" s="11">
-        <x:v>24800</x:v>
+        <x:v>28680</x:v>
       </x:c>
       <x:c r="L316" s="11">
         <x:v>2</x:v>
@@ -23282,7 +23282,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K317" s="11">
-        <x:v>20400</x:v>
+        <x:v>24280</x:v>
       </x:c>
       <x:c r="L317" s="11">
         <x:v>2</x:v>
@@ -23338,7 +23338,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K318" s="11">
-        <x:v>20400</x:v>
+        <x:v>24280</x:v>
       </x:c>
       <x:c r="L318" s="11">
         <x:v>2</x:v>
@@ -23394,7 +23394,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K319" s="11">
-        <x:v>20400</x:v>
+        <x:v>24280</x:v>
       </x:c>
       <x:c r="L319" s="11">
         <x:v>2</x:v>
@@ -23450,7 +23450,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K320" s="11">
-        <x:v>20400</x:v>
+        <x:v>24280</x:v>
       </x:c>
       <x:c r="L320" s="11">
         <x:v>2</x:v>
@@ -23506,7 +23506,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K321" s="11">
-        <x:v>20400</x:v>
+        <x:v>24280</x:v>
       </x:c>
       <x:c r="L321" s="11">
         <x:v>2</x:v>
@@ -23562,7 +23562,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K322" s="11">
-        <x:v>20400</x:v>
+        <x:v>24280</x:v>
       </x:c>
       <x:c r="L322" s="11">
         <x:v>2</x:v>
@@ -23618,7 +23618,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K323" s="11">
-        <x:v>20400</x:v>
+        <x:v>24280</x:v>
       </x:c>
       <x:c r="L323" s="11">
         <x:v>2</x:v>
@@ -23674,7 +23674,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K324" s="11">
-        <x:v>20400</x:v>
+        <x:v>24280</x:v>
       </x:c>
       <x:c r="L324" s="11">
         <x:v>2</x:v>
@@ -23730,7 +23730,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K325" s="11">
-        <x:v>20400</x:v>
+        <x:v>24280</x:v>
       </x:c>
       <x:c r="L325" s="11">
         <x:v>2</x:v>
@@ -23786,7 +23786,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K326" s="11">
-        <x:v>28288</x:v>
+        <x:v>32188</x:v>
       </x:c>
       <x:c r="L326" s="11">
         <x:v>104</x:v>
@@ -23846,7 +23846,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K327" s="11">
-        <x:v>12180.5</x:v>
+        <x:v>16880.5</x:v>
       </x:c>
       <x:c r="L327" s="11">
         <x:v>834</x:v>
@@ -23904,7 +23904,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K328" s="11">
-        <x:v>21240</x:v>
+        <x:v>25140</x:v>
       </x:c>
       <x:c r="L328" s="11">
         <x:v>32</x:v>
@@ -23960,7 +23960,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K329" s="11">
-        <x:v>15500</x:v>
+        <x:v>19400</x:v>
       </x:c>
       <x:c r="L329" s="11">
         <x:v>15</x:v>
@@ -24016,7 +24016,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K330" s="11">
-        <x:v>28000</x:v>
+        <x:v>31900</x:v>
       </x:c>
       <x:c r="L330" s="11">
         <x:v>14</x:v>
@@ -24072,7 +24072,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K331" s="11">
-        <x:v>9922</x:v>
+        <x:v>13822</x:v>
       </x:c>
       <x:c r="L331" s="11">
         <x:v>2420</x:v>
@@ -24128,7 +24128,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K332" s="11">
-        <x:v>28600</x:v>
+        <x:v>32500</x:v>
       </x:c>
       <x:c r="L332" s="11">
         <x:v>1120</x:v>
@@ -24184,7 +24184,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K333" s="11">
-        <x:v>27588</x:v>
+        <x:v>31488</x:v>
       </x:c>
       <x:c r="L333" s="11">
         <x:v>132</x:v>
@@ -24244,7 +24244,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K334" s="11">
-        <x:v>27064</x:v>
+        <x:v>30964</x:v>
       </x:c>
       <x:c r="L334" s="11">
         <x:v>136</x:v>
@@ -24304,7 +24304,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K335" s="11">
-        <x:v>27064</x:v>
+        <x:v>30784</x:v>
       </x:c>
       <x:c r="L335" s="11">
         <x:v>136</x:v>
@@ -24364,7 +24364,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K336" s="11">
-        <x:v>27064</x:v>
+        <x:v>30784</x:v>
       </x:c>
       <x:c r="L336" s="11">
         <x:v>136</x:v>
@@ -24424,7 +24424,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K337" s="11">
-        <x:v>10788</x:v>
+        <x:v>14668</x:v>
       </x:c>
       <x:c r="L337" s="11">
         <x:v>16</x:v>
@@ -24480,7 +24480,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K338" s="11">
-        <x:v>16393</x:v>
+        <x:v>18623</x:v>
       </x:c>
       <x:c r="L338" s="11">
         <x:v>1</x:v>
@@ -24536,7 +24536,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K339" s="11">
-        <x:v>16393</x:v>
+        <x:v>18623</x:v>
       </x:c>
       <x:c r="L339" s="11">
         <x:v>1</x:v>
@@ -24592,7 +24592,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K340" s="11">
-        <x:v>16393</x:v>
+        <x:v>18623</x:v>
       </x:c>
       <x:c r="L340" s="11">
         <x:v>1</x:v>
@@ -24648,7 +24648,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K341" s="11">
-        <x:v>16393</x:v>
+        <x:v>18623</x:v>
       </x:c>
       <x:c r="L341" s="11">
         <x:v>1</x:v>
@@ -24704,7 +24704,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K342" s="11">
-        <x:v>16393</x:v>
+        <x:v>18623</x:v>
       </x:c>
       <x:c r="L342" s="11">
         <x:v>1</x:v>
@@ -24760,7 +24760,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K343" s="11">
-        <x:v>16393</x:v>
+        <x:v>18623</x:v>
       </x:c>
       <x:c r="L343" s="11">
         <x:v>1</x:v>
@@ -24816,7 +24816,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K344" s="11">
-        <x:v>16393</x:v>
+        <x:v>18623</x:v>
       </x:c>
       <x:c r="L344" s="11">
         <x:v>1</x:v>
@@ -24872,7 +24872,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K345" s="11">
-        <x:v>16393</x:v>
+        <x:v>18623</x:v>
       </x:c>
       <x:c r="L345" s="11">
         <x:v>1</x:v>
@@ -24928,7 +24928,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K346" s="11">
-        <x:v>16393</x:v>
+        <x:v>18623</x:v>
       </x:c>
       <x:c r="L346" s="11">
         <x:v>1</x:v>
@@ -24984,7 +24984,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K347" s="11">
-        <x:v>16393</x:v>
+        <x:v>18623</x:v>
       </x:c>
       <x:c r="L347" s="11">
         <x:v>1</x:v>
@@ -25040,7 +25040,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K348" s="11">
-        <x:v>16393</x:v>
+        <x:v>18623</x:v>
       </x:c>
       <x:c r="L348" s="11">
         <x:v>1</x:v>
@@ -25096,7 +25096,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K349" s="11">
-        <x:v>16393</x:v>
+        <x:v>18623</x:v>
       </x:c>
       <x:c r="L349" s="11">
         <x:v>1</x:v>
@@ -25152,7 +25152,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K350" s="11">
-        <x:v>16393</x:v>
+        <x:v>18623</x:v>
       </x:c>
       <x:c r="L350" s="11">
         <x:v>1</x:v>
@@ -25208,7 +25208,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K351" s="11">
-        <x:v>16393</x:v>
+        <x:v>18623</x:v>
       </x:c>
       <x:c r="L351" s="11">
         <x:v>1</x:v>
@@ -25264,7 +25264,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K352" s="11">
-        <x:v>16755</x:v>
+        <x:v>18985</x:v>
       </x:c>
       <x:c r="L352" s="11">
         <x:v>10</x:v>
@@ -25320,7 +25320,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K353" s="11">
-        <x:v>16393</x:v>
+        <x:v>18623</x:v>
       </x:c>
       <x:c r="L353" s="11">
         <x:v>1</x:v>
@@ -25376,7 +25376,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K354" s="11">
-        <x:v>16393</x:v>
+        <x:v>18623</x:v>
       </x:c>
       <x:c r="L354" s="11">
         <x:v>1</x:v>
@@ -25432,7 +25432,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K355" s="11">
-        <x:v>16393</x:v>
+        <x:v>18623</x:v>
       </x:c>
       <x:c r="L355" s="11">
         <x:v>1</x:v>
@@ -25488,7 +25488,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K356" s="11">
-        <x:v>16393</x:v>
+        <x:v>18623</x:v>
       </x:c>
       <x:c r="L356" s="11">
         <x:v>1</x:v>
@@ -25544,7 +25544,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K357" s="11">
-        <x:v>16393</x:v>
+        <x:v>18623</x:v>
       </x:c>
       <x:c r="L357" s="11">
         <x:v>1</x:v>
@@ -25600,7 +25600,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K358" s="11">
-        <x:v>16393</x:v>
+        <x:v>18623</x:v>
       </x:c>
       <x:c r="L358" s="11">
         <x:v>1</x:v>
@@ -25656,7 +25656,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K359" s="11">
-        <x:v>16393</x:v>
+        <x:v>18623</x:v>
       </x:c>
       <x:c r="L359" s="11">
         <x:v>1</x:v>
@@ -25712,7 +25712,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K360" s="11">
-        <x:v>16393</x:v>
+        <x:v>18623</x:v>
       </x:c>
       <x:c r="L360" s="11">
         <x:v>1</x:v>
@@ -25768,7 +25768,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K361" s="11">
-        <x:v>16393</x:v>
+        <x:v>18623</x:v>
       </x:c>
       <x:c r="L361" s="11">
         <x:v>1</x:v>
@@ -25824,7 +25824,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K362" s="11">
-        <x:v>16393</x:v>
+        <x:v>18623</x:v>
       </x:c>
       <x:c r="L362" s="11">
         <x:v>1</x:v>
@@ -25880,7 +25880,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K363" s="11">
-        <x:v>16393</x:v>
+        <x:v>18623</x:v>
       </x:c>
       <x:c r="L363" s="11">
         <x:v>1</x:v>
@@ -25936,7 +25936,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K364" s="11">
-        <x:v>16393</x:v>
+        <x:v>18623</x:v>
       </x:c>
       <x:c r="L364" s="11">
         <x:v>1</x:v>
@@ -25992,7 +25992,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K365" s="11">
-        <x:v>23224</x:v>
+        <x:v>26944</x:v>
       </x:c>
       <x:c r="L365" s="11">
         <x:v>8</x:v>
@@ -26048,7 +26048,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K366" s="11">
-        <x:v>23224</x:v>
+        <x:v>26944</x:v>
       </x:c>
       <x:c r="L366" s="11">
         <x:v>8</x:v>
@@ -26104,7 +26104,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K367" s="11">
-        <x:v>23211</x:v>
+        <x:v>26931</x:v>
       </x:c>
       <x:c r="L367" s="11">
         <x:v>8</x:v>
@@ -26160,7 +26160,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K368" s="11">
-        <x:v>23224</x:v>
+        <x:v>26944</x:v>
       </x:c>
       <x:c r="L368" s="11">
         <x:v>8</x:v>
@@ -26216,7 +26216,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K369" s="11">
-        <x:v>21025</x:v>
+        <x:v>24925</x:v>
       </x:c>
       <x:c r="L369" s="11">
         <x:v>42</x:v>
@@ -26272,7 +26272,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K370" s="11">
-        <x:v>11313.5</x:v>
+        <x:v>13543.5</x:v>
       </x:c>
       <x:c r="L370" s="11">
         <x:v>2662</x:v>
@@ -26332,7 +26332,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K371" s="11">
-        <x:v>20060</x:v>
+        <x:v>24760</x:v>
       </x:c>
       <x:c r="L371" s="11">
         <x:v>1400</x:v>
@@ -26390,7 +26390,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K372" s="11">
-        <x:v>5499</x:v>
+        <x:v>9399</x:v>
       </x:c>
       <x:c r="L372" s="11">
         <x:v>23</x:v>
@@ -26446,7 +26446,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K373" s="11">
-        <x:v>20352</x:v>
+        <x:v>22582</x:v>
       </x:c>
       <x:c r="L373" s="11">
         <x:v>80</x:v>
@@ -26502,7 +26502,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K374" s="11">
-        <x:v>19437</x:v>
+        <x:v>23337</x:v>
       </x:c>
       <x:c r="L374" s="11">
         <x:v>1850</x:v>
@@ -26560,7 +26560,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K375" s="11">
-        <x:v>14124</x:v>
+        <x:v>18824</x:v>
       </x:c>
       <x:c r="L375" s="11">
         <x:v>594</x:v>
@@ -26618,7 +26618,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K376" s="11">
-        <x:v>19037</x:v>
+        <x:v>22937</x:v>
       </x:c>
       <x:c r="L376" s="11">
         <x:v>33</x:v>
@@ -26674,7 +26674,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K377" s="11">
-        <x:v>22305</x:v>
+        <x:v>26205</x:v>
       </x:c>
       <x:c r="L377" s="11">
         <x:v>36</x:v>
@@ -26730,7 +26730,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K378" s="11">
-        <x:v>22859</x:v>
+        <x:v>26759</x:v>
       </x:c>
       <x:c r="L378" s="11">
         <x:v>36</x:v>
@@ -26786,7 +26786,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K379" s="11">
-        <x:v>20820</x:v>
+        <x:v>24720</x:v>
       </x:c>
       <x:c r="L379" s="11">
         <x:v>11</x:v>
@@ -26842,7 +26842,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K380" s="11">
-        <x:v>16585</x:v>
+        <x:v>18815</x:v>
       </x:c>
       <x:c r="L380" s="11">
         <x:v>1070</x:v>
@@ -26898,7 +26898,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K381" s="11">
-        <x:v>16799</x:v>
+        <x:v>19029</x:v>
       </x:c>
       <x:c r="L381" s="11">
         <x:v>1070</x:v>
@@ -26954,7 +26954,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K382" s="11">
-        <x:v>16585</x:v>
+        <x:v>18815</x:v>
       </x:c>
       <x:c r="L382" s="11">
         <x:v>1070</x:v>
@@ -27010,7 +27010,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K383" s="11">
-        <x:v>9166.4</x:v>
+        <x:v>11396.4</x:v>
       </x:c>
       <x:c r="L383" s="11">
         <x:v>14</x:v>
@@ -27066,7 +27066,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K384" s="11">
-        <x:v>26759.98</x:v>
+        <x:v>28989.98</x:v>
       </x:c>
       <x:c r="L384" s="11">
         <x:v>1008</x:v>
@@ -27122,7 +27122,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K385" s="11">
-        <x:v>26279.98</x:v>
+        <x:v>28509.98</x:v>
       </x:c>
       <x:c r="L385" s="11">
         <x:v>896</x:v>
@@ -27178,7 +27178,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K386" s="11">
-        <x:v>26750.5</x:v>
+        <x:v>28980.5</x:v>
       </x:c>
       <x:c r="L386" s="11">
         <x:v>25</x:v>
@@ -27238,7 +27238,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K387" s="11">
-        <x:v>19461.7</x:v>
+        <x:v>23361.7</x:v>
       </x:c>
       <x:c r="L387" s="11">
         <x:v>19</x:v>
@@ -27294,7 +27294,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K388" s="11">
-        <x:v>9422.16</x:v>
+        <x:v>11652.16</x:v>
       </x:c>
       <x:c r="L388" s="11">
         <x:v>20</x:v>
@@ -27350,7 +27350,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K389" s="11">
-        <x:v>24264</x:v>
+        <x:v>26494</x:v>
       </x:c>
       <x:c r="L389" s="11">
         <x:v>23</x:v>
@@ -27406,7 +27406,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K390" s="11">
-        <x:v>9507.8</x:v>
+        <x:v>11737.8</x:v>
       </x:c>
       <x:c r="L390" s="11">
         <x:v>35</x:v>
@@ -27462,7 +27462,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K391" s="11">
-        <x:v>23797.2</x:v>
+        <x:v>28497.2</x:v>
       </x:c>
       <x:c r="L391" s="11">
         <x:v>20</x:v>
@@ -27520,7 +27520,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K392" s="11">
-        <x:v>24604.96</x:v>
+        <x:v>29304.96</x:v>
       </x:c>
       <x:c r="L392" s="11">
         <x:v>20</x:v>
@@ -27578,7 +27578,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K393" s="11">
-        <x:v>9072</x:v>
+        <x:v>11302</x:v>
       </x:c>
       <x:c r="L393" s="11">
         <x:v>1440</x:v>
@@ -27634,7 +27634,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K394" s="11">
-        <x:v>18110</x:v>
+        <x:v>20310</x:v>
       </x:c>
       <x:c r="L394" s="11">
         <x:v>1</x:v>
@@ -27690,7 +27690,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K395" s="11">
-        <x:v>14200</x:v>
+        <x:v>16400</x:v>
       </x:c>
       <x:c r="L395" s="11">
         <x:v>2</x:v>
@@ -27746,7 +27746,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K396" s="11">
-        <x:v>18110</x:v>
+        <x:v>20310</x:v>
       </x:c>
       <x:c r="L396" s="11">
         <x:v>1</x:v>
@@ -27802,7 +27802,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K397" s="11">
-        <x:v>18110</x:v>
+        <x:v>20310</x:v>
       </x:c>
       <x:c r="L397" s="11">
         <x:v>1</x:v>
@@ -27858,7 +27858,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K398" s="11">
-        <x:v>18110</x:v>
+        <x:v>20310</x:v>
       </x:c>
       <x:c r="L398" s="11">
         <x:v>1</x:v>
@@ -27914,7 +27914,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K399" s="11">
-        <x:v>18100</x:v>
+        <x:v>20300</x:v>
       </x:c>
       <x:c r="L399" s="11">
         <x:v>1</x:v>
@@ -27970,7 +27970,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K400" s="11">
-        <x:v>19950</x:v>
+        <x:v>22150</x:v>
       </x:c>
       <x:c r="L400" s="11">
         <x:v>2</x:v>
@@ -28026,7 +28026,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K401" s="11">
-        <x:v>20400</x:v>
+        <x:v>22600</x:v>
       </x:c>
       <x:c r="L401" s="11">
         <x:v>1</x:v>
@@ -28082,7 +28082,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K402" s="11">
-        <x:v>15560</x:v>
+        <x:v>17760</x:v>
       </x:c>
       <x:c r="L402" s="11">
         <x:v>2</x:v>
@@ -28138,7 +28138,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K403" s="11">
-        <x:v>18100</x:v>
+        <x:v>20300</x:v>
       </x:c>
       <x:c r="L403" s="11">
         <x:v>1</x:v>
@@ -28194,7 +28194,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K404" s="11">
-        <x:v>17450</x:v>
+        <x:v>19650</x:v>
       </x:c>
       <x:c r="L404" s="11">
         <x:v>2</x:v>
@@ -28250,7 +28250,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K405" s="11">
-        <x:v>20400</x:v>
+        <x:v>22600</x:v>
       </x:c>
       <x:c r="L405" s="11">
         <x:v>1</x:v>
@@ -28306,7 +28306,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K406" s="11">
-        <x:v>18100</x:v>
+        <x:v>20300</x:v>
       </x:c>
       <x:c r="L406" s="11">
         <x:v>1</x:v>
@@ -28362,7 +28362,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K407" s="11">
-        <x:v>18100</x:v>
+        <x:v>20300</x:v>
       </x:c>
       <x:c r="L407" s="11">
         <x:v>1</x:v>
@@ -28418,7 +28418,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K408" s="11">
-        <x:v>27450</x:v>
+        <x:v>31330</x:v>
       </x:c>
       <x:c r="L408" s="11">
         <x:v>3</x:v>
@@ -28474,7 +28474,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K409" s="11">
-        <x:v>26000</x:v>
+        <x:v>28200</x:v>
       </x:c>
       <x:c r="L409" s="11">
         <x:v>8</x:v>
@@ -28530,7 +28530,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K410" s="11">
-        <x:v>23500</x:v>
+        <x:v>27400</x:v>
       </x:c>
       <x:c r="L410" s="11">
         <x:v>705</x:v>
@@ -28586,7 +28586,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K411" s="11">
-        <x:v>11280</x:v>
+        <x:v>15180</x:v>
       </x:c>
       <x:c r="L411" s="11">
         <x:v>1562</x:v>
@@ -28642,7 +28642,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K412" s="11">
-        <x:v>12000</x:v>
+        <x:v>15900</x:v>
       </x:c>
       <x:c r="L412" s="11">
         <x:v>1630</x:v>
@@ -28698,7 +28698,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K413" s="11">
-        <x:v>11640</x:v>
+        <x:v>15540</x:v>
       </x:c>
       <x:c r="L413" s="11">
         <x:v>1660</x:v>
@@ -28754,7 +28754,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K414" s="11">
-        <x:v>12120</x:v>
+        <x:v>16020</x:v>
       </x:c>
       <x:c r="L414" s="11">
         <x:v>1751</x:v>
@@ -28810,7 +28810,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K415" s="11">
-        <x:v>25313.6</x:v>
+        <x:v>30013.6</x:v>
       </x:c>
       <x:c r="L415" s="11">
         <x:v>1911</x:v>
@@ -28868,7 +28868,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="K416" s="11">
-        <x:v>20460</x:v>
+        <x:v>22690</x:v>
       </x:c>
       <x:c r="L416" s="11">
         <x:v>20</x:v>
